--- a/data/云筑.xlsx
+++ b/data/云筑.xlsx
@@ -234,7 +234,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,13 +244,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -402,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,12 +494,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,18 +566,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -604,24 +579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,46 +732,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,97 +786,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10741,11 +10698,11 @@
   <dimension ref="A1:BA235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
